--- a/data/ExcelData.xlsx
+++ b/data/ExcelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium-Automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947C8AD2-CA7D-4B44-AA60-9B4D4B603530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6294CE3-A1A6-4EB7-8F9B-9051DDD0995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30826E3-AAE0-4B7B-815E-B3741AB64633}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -441,6 +441,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{1AFC24FE-A4C9-4C3F-9B78-8B6C41863E9C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{33C872DA-CB5A-4D88-8B0A-899C506E825C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
